--- a/ods/25-KW40 Time-Sheet.xlsx
+++ b/ods/25-KW40 Time-Sheet.xlsx
@@ -3099,11 +3099,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>29.09.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3147,11 +3143,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>29.09.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3195,11 +3187,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>29.09.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3243,11 +3231,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>29.09.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3291,11 +3275,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>30.09.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3339,11 +3319,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>30.09.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3387,11 +3363,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>30.09.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3435,11 +3407,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>30.09.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3483,11 +3451,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>01.10.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
